--- a/Ha Nam.xlsx
+++ b/Ha Nam.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E898"/>
+  <dimension ref="A1:E906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,17 +581,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Đào</t>
+          <t>Ngô</t>
         </is>
       </c>
       <c r="C11">
-        <v>18914</v>
+        <v>16928</v>
       </c>
       <c r="D11">
         <v>843026</v>
       </c>
       <c r="E11">
-        <v>2.243584420883816</v>
+        <v>2.00800449808191</v>
       </c>
     </row>
     <row r="12">
@@ -602,17 +602,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ngô</t>
+          <t>Trương</t>
         </is>
       </c>
       <c r="C12">
-        <v>16928</v>
+        <v>15483</v>
       </c>
       <c r="D12">
         <v>843026</v>
       </c>
       <c r="E12">
-        <v>2.00800449808191</v>
+        <v>1.836598159487371</v>
       </c>
     </row>
     <row r="13">
@@ -623,17 +623,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Trương</t>
+          <t>Đặng</t>
         </is>
       </c>
       <c r="C13">
-        <v>15483</v>
+        <v>13751</v>
       </c>
       <c r="D13">
         <v>843026</v>
       </c>
       <c r="E13">
-        <v>1.836598159487371</v>
+        <v>1.631147793780975</v>
       </c>
     </row>
     <row r="14">
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đặng</t>
+          <t>Dương</t>
         </is>
       </c>
       <c r="C14">
-        <v>13751</v>
+        <v>13687</v>
       </c>
       <c r="D14">
         <v>843026</v>
       </c>
       <c r="E14">
-        <v>1.631147793780975</v>
+        <v>1.623556094355334</v>
       </c>
     </row>
     <row r="15">
@@ -665,17 +665,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dương</t>
+          <t>Đào</t>
         </is>
       </c>
       <c r="C15">
-        <v>13687</v>
+        <v>12957</v>
       </c>
       <c r="D15">
         <v>843026</v>
       </c>
       <c r="E15">
-        <v>1.623556094355334</v>
+        <v>1.536963272781622</v>
       </c>
     </row>
     <row r="16">
@@ -791,17 +791,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tạ</t>
+          <t>Đoàn</t>
         </is>
       </c>
       <c r="C21">
-        <v>5610</v>
+        <v>6391</v>
       </c>
       <c r="D21">
         <v>843026</v>
       </c>
       <c r="E21">
-        <v>0.6654599027787992</v>
+        <v>0.7581023598323183</v>
       </c>
     </row>
     <row r="22">
@@ -812,17 +812,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hà</t>
+          <t>Tạ</t>
         </is>
       </c>
       <c r="C22">
-        <v>5291</v>
+        <v>5610</v>
       </c>
       <c r="D22">
         <v>843026</v>
       </c>
       <c r="E22">
-        <v>0.6276200259541225</v>
+        <v>0.6654599027787992</v>
       </c>
     </row>
     <row r="23">
@@ -833,17 +833,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hà</t>
         </is>
       </c>
       <c r="C23">
-        <v>4359</v>
+        <v>5291</v>
       </c>
       <c r="D23">
         <v>843026</v>
       </c>
       <c r="E23">
-        <v>0.5170659030682327</v>
+        <v>0.6276200259541225</v>
       </c>
     </row>
     <row r="24">
@@ -854,17 +854,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="C24">
-        <v>4103</v>
+        <v>4359</v>
       </c>
       <c r="D24">
         <v>843026</v>
       </c>
       <c r="E24">
-        <v>0.4866991053656708</v>
+        <v>0.5170659030682327</v>
       </c>
     </row>
     <row r="25">
@@ -875,17 +875,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lưu</t>
+          <t>Cao</t>
         </is>
       </c>
       <c r="C25">
-        <v>3393</v>
+        <v>4103</v>
       </c>
       <c r="D25">
         <v>843026</v>
       </c>
       <c r="E25">
-        <v>0.4024786898624716</v>
+        <v>0.4866991053656708</v>
       </c>
     </row>
     <row r="26">
@@ -896,17 +896,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kiều</t>
+          <t>Lưu</t>
         </is>
       </c>
       <c r="C26">
-        <v>3335</v>
+        <v>3393</v>
       </c>
       <c r="D26">
         <v>843026</v>
       </c>
       <c r="E26">
-        <v>0.3955987122579849</v>
+        <v>0.4024786898624716</v>
       </c>
     </row>
     <row r="27">
@@ -917,17 +917,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lã</t>
+          <t>Kiều</t>
         </is>
       </c>
       <c r="C27">
-        <v>2384</v>
+        <v>3335</v>
       </c>
       <c r="D27">
         <v>843026</v>
       </c>
       <c r="E27">
-        <v>0.2827908036051083</v>
+        <v>0.3955987122579849</v>
       </c>
     </row>
     <row r="28">
@@ -938,17 +938,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tống</t>
+          <t>Lã</t>
         </is>
       </c>
       <c r="C28">
-        <v>1991</v>
+        <v>2384</v>
       </c>
       <c r="D28">
         <v>843026</v>
       </c>
       <c r="E28">
-        <v>0.2361730243195347</v>
+        <v>0.2827908036051083</v>
       </c>
     </row>
     <row r="29">
@@ -959,17 +959,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nhữ</t>
+          <t>Tống</t>
         </is>
       </c>
       <c r="C29">
-        <v>1583</v>
+        <v>1991</v>
       </c>
       <c r="D29">
         <v>843026</v>
       </c>
       <c r="E29">
-        <v>0.1877759404810765</v>
+        <v>0.2361730243195347</v>
       </c>
     </row>
     <row r="30">
@@ -980,17 +980,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hồ</t>
+          <t>Nhữ</t>
         </is>
       </c>
       <c r="C30">
-        <v>1508</v>
+        <v>1583</v>
       </c>
       <c r="D30">
         <v>843026</v>
       </c>
       <c r="E30">
-        <v>0.1788794177166541</v>
+        <v>0.1877759404810765</v>
       </c>
     </row>
     <row r="31">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nghiêm</t>
+          <t>Hồ</t>
         </is>
       </c>
       <c r="C31">
-        <v>1432</v>
+        <v>1508</v>
       </c>
       <c r="D31">
         <v>843026</v>
       </c>
       <c r="E31">
-        <v>0.169864274648706</v>
+        <v>0.1788794177166541</v>
       </c>
     </row>
     <row r="32">
@@ -1022,17 +1022,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cù</t>
+          <t>Nghiêm</t>
         </is>
       </c>
       <c r="C32">
-        <v>1411</v>
+        <v>1432</v>
       </c>
       <c r="D32">
         <v>843026</v>
       </c>
       <c r="E32">
-        <v>0.1673732482746677</v>
+        <v>0.169864274648706</v>
       </c>
     </row>
     <row r="33">
@@ -1043,17 +1043,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bạch</t>
+          <t>Cù</t>
         </is>
       </c>
       <c r="C33">
-        <v>1380</v>
+        <v>1411</v>
       </c>
       <c r="D33">
         <v>843026</v>
       </c>
       <c r="E33">
-        <v>0.1636960188653731</v>
+        <v>0.1673732482746677</v>
       </c>
     </row>
     <row r="34">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Phùng</t>
+          <t>Bạch</t>
         </is>
       </c>
       <c r="C34">
-        <v>1182</v>
+        <v>1380</v>
       </c>
       <c r="D34">
         <v>843026</v>
       </c>
       <c r="E34">
-        <v>0.1402091987672978</v>
+        <v>0.1636960188653731</v>
       </c>
     </row>
     <row r="35">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Văn</t>
+          <t>Phùng</t>
         </is>
       </c>
       <c r="C35">
-        <v>1065</v>
+        <v>1182</v>
       </c>
       <c r="D35">
         <v>843026</v>
       </c>
       <c r="E35">
-        <v>0.1263306232547988</v>
+        <v>0.1402091987672978</v>
       </c>
     </row>
     <row r="36">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Đàm</t>
+          <t>Văn</t>
         </is>
       </c>
       <c r="C36">
-        <v>965</v>
+        <v>1068</v>
       </c>
       <c r="D36">
         <v>843026</v>
       </c>
       <c r="E36">
-        <v>0.1144685929022355</v>
+        <v>0.1266864841653757</v>
       </c>
     </row>
     <row r="37">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Thái</t>
+          <t>Đàm</t>
         </is>
       </c>
       <c r="C37">
-        <v>716</v>
+        <v>965</v>
       </c>
       <c r="D37">
         <v>843026</v>
       </c>
       <c r="E37">
-        <v>0.08493213732435298</v>
+        <v>0.1144685929022355</v>
       </c>
     </row>
     <row r="38">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Quản</t>
+          <t>Thái</t>
         </is>
       </c>
       <c r="C38">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="D38">
         <v>843026</v>
       </c>
       <c r="E38">
-        <v>0.0835086936820454</v>
+        <v>0.08493213732435298</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Quách</t>
+          <t>Quản</t>
         </is>
       </c>
       <c r="C39">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="D39">
         <v>843026</v>
       </c>
       <c r="E39">
-        <v>0.08066180639743022</v>
+        <v>0.0835086936820454</v>
       </c>
     </row>
     <row r="40">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lý</t>
+          <t>Quách</t>
         </is>
       </c>
       <c r="C40">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="D40">
         <v>843026</v>
       </c>
       <c r="E40">
-        <v>0.07247700545416155</v>
+        <v>0.08066180639743022</v>
       </c>
     </row>
     <row r="41">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Quyền</t>
+          <t>Lý</t>
         </is>
       </c>
       <c r="C41">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="D41">
         <v>843026</v>
       </c>
       <c r="E41">
-        <v>0.06951149786602073</v>
+        <v>0.07247700545416155</v>
       </c>
     </row>
     <row r="42">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tô</t>
+          <t>Quyền</t>
         </is>
       </c>
       <c r="C42">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D42">
         <v>843026</v>
       </c>
       <c r="E42">
-        <v>0.06879977604486694</v>
+        <v>0.06951149786602073</v>
       </c>
     </row>
     <row r="43">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lâm</t>
+          <t>Tô</t>
         </is>
       </c>
       <c r="C43">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D43">
         <v>843026</v>
       </c>
       <c r="E43">
-        <v>0.06796943392018752</v>
+        <v>0.06879977604486694</v>
       </c>
     </row>
     <row r="44">
@@ -1274,17 +1274,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LÃ</t>
+          <t>Lâm</t>
         </is>
       </c>
       <c r="C44">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="D44">
         <v>843026</v>
       </c>
       <c r="E44">
-        <v>0.06132669692275208</v>
+        <v>0.06796943392018752</v>
       </c>
     </row>
     <row r="45">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Thạch</t>
+          <t>LÃ</t>
         </is>
       </c>
       <c r="C45">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D45">
         <v>843026</v>
       </c>
       <c r="E45">
-        <v>0.05978463297691886</v>
+        <v>0.06132669692275208</v>
       </c>
     </row>
     <row r="46">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lữ</t>
+          <t>Thạch</t>
         </is>
       </c>
       <c r="C46">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="D46">
         <v>843026</v>
       </c>
       <c r="E46">
-        <v>0.05729360660288057</v>
+        <v>0.05978463297691886</v>
       </c>
     </row>
     <row r="47">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Đoàn</t>
+          <t>Lữ</t>
         </is>
       </c>
       <c r="C47">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="D47">
         <v>843026</v>
       </c>
       <c r="E47">
-        <v>0.05420947871121412</v>
+        <v>0.05729360660288057</v>
       </c>
     </row>
     <row r="48">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Nghê</t>
+          <t>Khúc</t>
         </is>
       </c>
       <c r="C94">
@@ -2345,17 +2345,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Khúc</t>
+          <t>Nghê</t>
         </is>
       </c>
       <c r="C95">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D95">
         <v>843026</v>
       </c>
       <c r="E95">
-        <v>0.005219293355127838</v>
+        <v>0.00533791365865347</v>
       </c>
     </row>
     <row r="96">
@@ -2450,17 +2450,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lục</t>
+          <t>Thị</t>
         </is>
       </c>
       <c r="C100">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D100">
         <v>843026</v>
       </c>
       <c r="E100">
-        <v>0.004388951230448409</v>
+        <v>0.004507571533974041</v>
       </c>
     </row>
     <row r="101">
@@ -2471,17 +2471,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cung</t>
+          <t>Lục</t>
         </is>
       </c>
       <c r="C101">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101">
         <v>843026</v>
       </c>
       <c r="E101">
-        <v>0.004270330926922776</v>
+        <v>0.004388951230448409</v>
       </c>
     </row>
     <row r="102">
@@ -2492,17 +2492,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Du</t>
+          <t>Cung</t>
         </is>
       </c>
       <c r="C102">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102">
         <v>843026</v>
       </c>
       <c r="E102">
-        <v>0.004151710623397143</v>
+        <v>0.004270330926922776</v>
       </c>
     </row>
     <row r="103">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Khuất</t>
+          <t>Du</t>
         </is>
       </c>
       <c r="C103">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Mã</t>
+          <t>Khuất</t>
         </is>
       </c>
       <c r="C104">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tiêu</t>
+          <t>Mã</t>
         </is>
       </c>
       <c r="C105">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Thị</t>
+          <t>Tiêu</t>
         </is>
       </c>
       <c r="C106">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106">
         <v>843026</v>
       </c>
       <c r="E106">
-        <v>0.004033090319871511</v>
+        <v>0.004151710623397143</v>
       </c>
     </row>
     <row r="107">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Diêm</t>
+          <t>Dđoàn</t>
         </is>
       </c>
       <c r="C297">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>đình</t>
+          <t>Diêm</t>
         </is>
       </c>
       <c r="C298">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Đôc</t>
+          <t>đình</t>
         </is>
       </c>
       <c r="C299">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Đức</t>
+          <t>Đoàng</t>
         </is>
       </c>
       <c r="C300">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Giả</t>
+          <t>Đôc</t>
         </is>
       </c>
       <c r="C301">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Hoa</t>
+          <t>Đức</t>
         </is>
       </c>
       <c r="C302">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Hoảng</t>
+          <t>Giả</t>
         </is>
       </c>
       <c r="C303">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Hùng</t>
+          <t>Hoa</t>
         </is>
       </c>
       <c r="C304">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>KHUẤT</t>
+          <t>Hoảng</t>
         </is>
       </c>
       <c r="C305">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>KIM</t>
+          <t>Hùng</t>
         </is>
       </c>
       <c r="C306">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Laại</t>
+          <t>KHUẤT</t>
         </is>
       </c>
       <c r="C307">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>lai</t>
+          <t>KIM</t>
         </is>
       </c>
       <c r="C308">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>lễ</t>
+          <t>Laại</t>
         </is>
       </c>
       <c r="C309">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Lệ</t>
+          <t>lai</t>
         </is>
       </c>
       <c r="C310">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Lông</t>
+          <t>lễ</t>
         </is>
       </c>
       <c r="C311">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Lừ</t>
+          <t>Lệ</t>
         </is>
       </c>
       <c r="C312">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Lục</t>
+          <t>Lông</t>
         </is>
       </c>
       <c r="C313">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Mã</t>
+          <t>Lừ</t>
         </is>
       </c>
       <c r="C314">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mại</t>
+          <t>Lục</t>
         </is>
       </c>
       <c r="C315">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>MGUYÊN</t>
+          <t>Mã</t>
         </is>
       </c>
       <c r="C316">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ngần</t>
+          <t>Mại</t>
         </is>
       </c>
       <c r="C317">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ngu</t>
+          <t>MGUYÊN</t>
         </is>
       </c>
       <c r="C318">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ngũ</t>
+          <t>Ngần</t>
         </is>
       </c>
       <c r="C319">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>như</t>
+          <t>Ngu</t>
         </is>
       </c>
       <c r="C320">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NHUYỄN</t>
+          <t>Ngũ</t>
         </is>
       </c>
       <c r="C321">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Nuyên</t>
+          <t>như</t>
         </is>
       </c>
       <c r="C322">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Phẩm</t>
+          <t>NHUYỄN</t>
         </is>
       </c>
       <c r="C323">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Phmj</t>
+          <t>Nuyên</t>
         </is>
       </c>
       <c r="C324">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Phó</t>
+          <t>Phẩm</t>
         </is>
       </c>
       <c r="C325">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Phù</t>
+          <t>Phmj</t>
         </is>
       </c>
       <c r="C326">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Quán</t>
+          <t>Phó</t>
         </is>
       </c>
       <c r="C327">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Quyết</t>
+          <t>Phù</t>
         </is>
       </c>
       <c r="C328">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tải</t>
+          <t>Quán</t>
         </is>
       </c>
       <c r="C329">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TÀO</t>
+          <t>Quyết</t>
         </is>
       </c>
       <c r="C330">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Thiêu</t>
+          <t>Tải</t>
         </is>
       </c>
       <c r="C331">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>TÀO</t>
         </is>
       </c>
       <c r="C332">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Thiêu</t>
         </is>
       </c>
       <c r="C333">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Trâm</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C334">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Trền</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="C335">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRINH</t>
+          <t>Trâm</t>
         </is>
       </c>
       <c r="C336">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TRÌNH</t>
+          <t>Trền</t>
         </is>
       </c>
       <c r="C337">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Tương</t>
+          <t>TRINH</t>
         </is>
       </c>
       <c r="C338">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tưởng</t>
+          <t>TRÌNH</t>
         </is>
       </c>
       <c r="C339">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Úy</t>
+          <t>Tương</t>
         </is>
       </c>
       <c r="C340">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Vo</t>
+          <t>Tưởng</t>
         </is>
       </c>
       <c r="C341">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Vú</t>
+          <t>Úy</t>
         </is>
       </c>
       <c r="C342">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Vù</t>
+          <t>Vo</t>
         </is>
       </c>
       <c r="C343">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Xuân</t>
+          <t>Vú</t>
         </is>
       </c>
       <c r="C344">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Vù</t>
         </is>
       </c>
       <c r="C345">
@@ -7616,17 +7616,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Xuân</t>
         </is>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D346">
         <v>843026</v>
       </c>
       <c r="E346">
-        <v>0.0002372406070512653</v>
+        <v>0.000355860910576898</v>
       </c>
     </row>
     <row r="347">
@@ -7637,17 +7637,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Baạch</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D347">
         <v>843026</v>
       </c>
       <c r="E347">
-        <v>0.0002372406070512653</v>
+        <v>0.000355860910576898</v>
       </c>
     </row>
     <row r="348">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>BÀN</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="C348">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Baạch</t>
         </is>
       </c>
       <c r="C349">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BẬT</t>
+          <t>BÀN</t>
         </is>
       </c>
       <c r="C350">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Binh</t>
+          <t>Bật</t>
         </is>
       </c>
       <c r="C351">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Bông</t>
+          <t>BẬT</t>
         </is>
       </c>
       <c r="C352">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Bù</t>
+          <t>Binh</t>
         </is>
       </c>
       <c r="C353">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Bông</t>
         </is>
       </c>
       <c r="C354">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Chảo</t>
+          <t>Bù</t>
         </is>
       </c>
       <c r="C355">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>CHƯƠNG</t>
+          <t>Cap</t>
         </is>
       </c>
       <c r="C356">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Cô</t>
+          <t>Chảo</t>
         </is>
       </c>
       <c r="C357">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Con</t>
+          <t>CHƯƠNG</t>
         </is>
       </c>
       <c r="C358">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Đắc</t>
+          <t>Cô</t>
         </is>
       </c>
       <c r="C359">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Đang</t>
+          <t>Con</t>
         </is>
       </c>
       <c r="C360">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>đăng</t>
+          <t>Đắc</t>
         </is>
       </c>
       <c r="C361">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Đặt</t>
+          <t>Đang</t>
         </is>
       </c>
       <c r="C362">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Điểu</t>
+          <t>đăng</t>
         </is>
       </c>
       <c r="C363">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Địn</t>
+          <t>Đàon</t>
         </is>
       </c>
       <c r="C364">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ĐING</t>
+          <t>Đặt</t>
         </is>
       </c>
       <c r="C365">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Đính</t>
+          <t>DĐÀO</t>
         </is>
       </c>
       <c r="C366">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ĐỊNH</t>
+          <t>Dđoàn</t>
         </is>
       </c>
       <c r="C367">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Đo</t>
+          <t>Điểu</t>
         </is>
       </c>
       <c r="C368">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>đồng</t>
+          <t>Địn</t>
         </is>
       </c>
       <c r="C369">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Động</t>
+          <t>ĐING</t>
         </is>
       </c>
       <c r="C370">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Đôx</t>
+          <t>Đính</t>
         </is>
       </c>
       <c r="C371">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Đso</t>
+          <t>ĐỊNH</t>
         </is>
       </c>
       <c r="C372">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Dự</t>
+          <t>Đo</t>
         </is>
       </c>
       <c r="C373">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Dung</t>
+          <t>đồng</t>
         </is>
       </c>
       <c r="C374">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>DƯỢNG</t>
+          <t>Động</t>
         </is>
       </c>
       <c r="C375">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>GIANG</t>
+          <t>Đôx</t>
         </is>
       </c>
       <c r="C376">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Guyễn</t>
+          <t>Đso</t>
         </is>
       </c>
       <c r="C377">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Hạng</t>
+          <t>Dự</t>
         </is>
       </c>
       <c r="C378">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Hầu</t>
+          <t>Dung</t>
         </is>
       </c>
       <c r="C379">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Hô</t>
+          <t>DƯỢNG</t>
         </is>
       </c>
       <c r="C380">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Hỏa</t>
+          <t>GIANG</t>
         </is>
       </c>
       <c r="C381">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Hoaàng</t>
+          <t>Guyễn</t>
         </is>
       </c>
       <c r="C382">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Hương</t>
+          <t>Hạng</t>
         </is>
       </c>
       <c r="C383">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Huyễn</t>
+          <t>Hầu</t>
         </is>
       </c>
       <c r="C384">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Kha</t>
+          <t>Hô</t>
         </is>
       </c>
       <c r="C385">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>KHƯƠNG</t>
+          <t>Hỏa</t>
         </is>
       </c>
       <c r="C386">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Kiệt</t>
+          <t>Hoaàng</t>
         </is>
       </c>
       <c r="C387">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Kiệu</t>
+          <t>Hương</t>
         </is>
       </c>
       <c r="C388">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Lạ</t>
+          <t>Huyễn</t>
         </is>
       </c>
       <c r="C389">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Lac</t>
+          <t>Kha</t>
         </is>
       </c>
       <c r="C390">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Laij</t>
+          <t>KHƯƠNG</t>
         </is>
       </c>
       <c r="C391">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Lain</t>
+          <t>Kiệt</t>
         </is>
       </c>
       <c r="C392">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Lãnh</t>
+          <t>Kiệu</t>
         </is>
       </c>
       <c r="C393">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Lãnh</t>
+          <t>Lạ</t>
         </is>
       </c>
       <c r="C394">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Lao</t>
+          <t>Lac</t>
         </is>
       </c>
       <c r="C395">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Lào</t>
+          <t>Laij</t>
         </is>
       </c>
       <c r="C396">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Lầu</t>
+          <t>Lain</t>
         </is>
       </c>
       <c r="C397">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Lệnh</t>
+          <t>Lãnh</t>
         </is>
       </c>
       <c r="C398">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Liêu</t>
+          <t>Lãnh</t>
         </is>
       </c>
       <c r="C399">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Lộ</t>
+          <t>Lao</t>
         </is>
       </c>
       <c r="C400">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Luôn</t>
+          <t>Lào</t>
         </is>
       </c>
       <c r="C401">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>LUONG</t>
+          <t>Lầu</t>
         </is>
       </c>
       <c r="C402">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Màu</t>
+          <t>Lệnh</t>
         </is>
       </c>
       <c r="C403">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Mấu</t>
+          <t>Liêu</t>
         </is>
       </c>
       <c r="C404">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Mguyễn</t>
+          <t>Lộ</t>
         </is>
       </c>
       <c r="C405">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Năng</t>
+          <t>Luôn</t>
         </is>
       </c>
       <c r="C406">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ngà</t>
+          <t>LUONG</t>
         </is>
       </c>
       <c r="C407">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Nghiệm</t>
+          <t>Màu</t>
         </is>
       </c>
       <c r="C408">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ngõ</t>
+          <t>Mấu</t>
         </is>
       </c>
       <c r="C409">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ngụy</t>
+          <t>Mguyễn</t>
         </is>
       </c>
       <c r="C410">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NGUYEỄN</t>
+          <t>Năng</t>
         </is>
       </c>
       <c r="C411">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Nguyết</t>
+          <t>Ngà</t>
         </is>
       </c>
       <c r="C412">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Nguyệt</t>
+          <t>Nghiệm</t>
         </is>
       </c>
       <c r="C413">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Nhuyên</t>
+          <t>Ngõ</t>
         </is>
       </c>
       <c r="C414">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NNHỮ</t>
+          <t>Ngụy</t>
         </is>
       </c>
       <c r="C415">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Nường</t>
+          <t>NGUYEỄN</t>
         </is>
       </c>
       <c r="C416">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Nguyết</t>
         </is>
       </c>
       <c r="C417">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Pạm</t>
+          <t>Nguyệt</t>
         </is>
       </c>
       <c r="C418">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Nhuyên</t>
         </is>
       </c>
       <c r="C419">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Pha</t>
+          <t>NNHỮ</t>
         </is>
       </c>
       <c r="C420">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Phạ</t>
+          <t>Nường</t>
         </is>
       </c>
       <c r="C421">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Phị</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C422">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Quánh</t>
+          <t>Pạm</t>
         </is>
       </c>
       <c r="C423">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Quoách</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="C424">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>rần</t>
+          <t>Pha</t>
         </is>
       </c>
       <c r="C425">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>Phạ</t>
         </is>
       </c>
       <c r="C426">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tfân</t>
+          <t>Phị</t>
         </is>
       </c>
       <c r="C427">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Thẩm</t>
+          <t>Quánh</t>
         </is>
       </c>
       <c r="C428">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Thạm</t>
+          <t>Quoách</t>
         </is>
       </c>
       <c r="C429">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>THIỀU</t>
+          <t>rần</t>
         </is>
       </c>
       <c r="C430">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tiếp</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C431">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tiết</t>
+          <t>Tfân</t>
         </is>
       </c>
       <c r="C432">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TRÂẦN</t>
+          <t>Thẩm</t>
         </is>
       </c>
       <c r="C433">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TrÀn</t>
+          <t>Thạm</t>
         </is>
       </c>
       <c r="C434">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TRẪN</t>
+          <t>THIỀU</t>
         </is>
       </c>
       <c r="C435">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>trận</t>
+          <t>Tiếp</t>
         </is>
       </c>
       <c r="C436">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Traznf</t>
+          <t>Tiết</t>
         </is>
       </c>
       <c r="C437">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Trẻ</t>
+          <t>TRÂẦN</t>
         </is>
       </c>
       <c r="C438">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tru</t>
+          <t>TrÀn</t>
         </is>
       </c>
       <c r="C439">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Trưởng</t>
+          <t>TRẪN</t>
         </is>
       </c>
       <c r="C440">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Từ</t>
+          <t>trận</t>
         </is>
       </c>
       <c r="C441">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>uong</t>
+          <t>Traznf</t>
         </is>
       </c>
       <c r="C442">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Vă</t>
+          <t>Trẻ</t>
         </is>
       </c>
       <c r="C443">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Vân</t>
+          <t>Tru</t>
         </is>
       </c>
       <c r="C444">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Vao</t>
+          <t>Trưởng</t>
         </is>
       </c>
       <c r="C445">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Vừ</t>
+          <t>Từ</t>
         </is>
       </c>
       <c r="C446">
@@ -9737,17 +9737,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>￼</t>
+          <t>uong</t>
         </is>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D447">
         <v>843026</v>
       </c>
       <c r="E447">
-        <v>0.0001186203035256327</v>
+        <v>0.0002372406070512653</v>
       </c>
     </row>
     <row r="448">
@@ -9758,17 +9758,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>À</t>
+          <t>Vă</t>
         </is>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D448">
         <v>843026</v>
       </c>
       <c r="E448">
-        <v>0.0001186203035256327</v>
+        <v>0.0002372406070512653</v>
       </c>
     </row>
     <row r="449">
@@ -9779,17 +9779,17 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>Vân</t>
         </is>
       </c>
       <c r="C449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D449">
         <v>843026</v>
       </c>
       <c r="E449">
-        <v>0.0001186203035256327</v>
+        <v>0.0002372406070512653</v>
       </c>
     </row>
     <row r="450">
@@ -9800,17 +9800,17 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>Vao</t>
         </is>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D450">
         <v>843026</v>
       </c>
       <c r="E450">
-        <v>0.0001186203035256327</v>
+        <v>0.0002372406070512653</v>
       </c>
     </row>
     <row r="451">
@@ -9821,17 +9821,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Vừ</t>
         </is>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D451">
         <v>843026</v>
       </c>
       <c r="E451">
-        <v>0.0001186203035256327</v>
+        <v>0.0002372406070512653</v>
       </c>
     </row>
     <row r="452">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>âu</t>
+          <t>￼</t>
         </is>
       </c>
       <c r="C452">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Ấu</t>
+          <t>À</t>
         </is>
       </c>
       <c r="C453">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>bà</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="C454">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Bà</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="C455">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>bạc</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C456">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Bach</t>
+          <t>âu</t>
         </is>
       </c>
       <c r="C457">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Bách</t>
+          <t>Ấu</t>
         </is>
       </c>
       <c r="C458">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>BÁCH</t>
+          <t>bà</t>
         </is>
       </c>
       <c r="C459">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Bãch</t>
+          <t>Bà</t>
         </is>
       </c>
       <c r="C460">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>BẠCH</t>
+          <t>bạc</t>
         </is>
       </c>
       <c r="C461">
@@ -10052,7 +10052,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Bak</t>
+          <t>Bach</t>
         </is>
       </c>
       <c r="C462">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Ban</t>
+          <t>Bách</t>
         </is>
       </c>
       <c r="C463">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Bang</t>
+          <t>BÁCH</t>
         </is>
       </c>
       <c r="C464">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Bằng</t>
+          <t>Bãch</t>
         </is>
       </c>
       <c r="C465">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Bảng</t>
+          <t>BẠCH</t>
         </is>
       </c>
       <c r="C466">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Bặng</t>
+          <t>Bak</t>
         </is>
       </c>
       <c r="C467">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Bảo</t>
+          <t>Ban</t>
         </is>
       </c>
       <c r="C468">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>bế</t>
+          <t>Bang</t>
         </is>
       </c>
       <c r="C469">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Bì</t>
+          <t>Bằng</t>
         </is>
       </c>
       <c r="C470">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Bia</t>
+          <t>Bảng</t>
         </is>
       </c>
       <c r="C471">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Biên</t>
+          <t>Bặng</t>
         </is>
       </c>
       <c r="C472">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Biif</t>
+          <t>Bảo</t>
         </is>
       </c>
       <c r="C473">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Bũ</t>
+          <t>bế</t>
         </is>
       </c>
       <c r="C474">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Bũi</t>
+          <t>Bì</t>
         </is>
       </c>
       <c r="C475">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cà</t>
+          <t>Bia</t>
         </is>
       </c>
       <c r="C476">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CÀ</t>
+          <t>Biên</t>
         </is>
       </c>
       <c r="C477">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cai</t>
+          <t>Biif</t>
         </is>
       </c>
       <c r="C478">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cam</t>
+          <t>Bũ</t>
         </is>
       </c>
       <c r="C479">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Câm</t>
+          <t>Bũi</t>
         </is>
       </c>
       <c r="C480">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cầm</t>
+          <t>Cà</t>
         </is>
       </c>
       <c r="C481">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Cảnh</t>
+          <t>CÀ</t>
         </is>
       </c>
       <c r="C482">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cbu</t>
+          <t>Cai</t>
         </is>
       </c>
       <c r="C483">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Chạnh</t>
+          <t>Cam</t>
         </is>
       </c>
       <c r="C484">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>chẩu</t>
+          <t>Câm</t>
         </is>
       </c>
       <c r="C485">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Chẩu</t>
+          <t>Cầm</t>
         </is>
       </c>
       <c r="C486">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Chẩu</t>
+          <t>Cảnh</t>
         </is>
       </c>
       <c r="C487">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>chi</t>
+          <t>Cbu</t>
         </is>
       </c>
       <c r="C488">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Chỉn</t>
+          <t>Chạnh</t>
         </is>
       </c>
       <c r="C489">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Chìu</t>
+          <t>chẩu</t>
         </is>
       </c>
       <c r="C490">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Chữ</t>
+          <t>Chẩu</t>
         </is>
       </c>
       <c r="C491">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Chùa</t>
+          <t>Chẩu</t>
         </is>
       </c>
       <c r="C492">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>chương</t>
+          <t>chi</t>
         </is>
       </c>
       <c r="C493">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Chỉn</t>
         </is>
       </c>
       <c r="C494">
@@ -10745,7 +10745,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>cồ</t>
+          <t>Chìu</t>
         </is>
       </c>
       <c r="C495">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cồ</t>
+          <t>Chữ</t>
         </is>
       </c>
       <c r="C496">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Củ</t>
+          <t>Chùa</t>
         </is>
       </c>
       <c r="C497">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Cụ</t>
+          <t>chương</t>
         </is>
       </c>
       <c r="C498">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cũng</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="C499">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Đà</t>
+          <t>cồ</t>
         </is>
       </c>
       <c r="C500">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Đăgj</t>
+          <t>Cồ</t>
         </is>
       </c>
       <c r="C501">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>dàm</t>
+          <t>Củ</t>
         </is>
       </c>
       <c r="C502">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Dàm</t>
+          <t>Cụ</t>
         </is>
       </c>
       <c r="C503">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Đam</t>
+          <t>Cũng</t>
         </is>
       </c>
       <c r="C504">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Đamg</t>
+          <t>Đà</t>
         </is>
       </c>
       <c r="C505">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Đặmg</t>
+          <t>Đăgj</t>
         </is>
       </c>
       <c r="C506">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Dân</t>
+          <t>dàm</t>
         </is>
       </c>
       <c r="C507">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Dần</t>
+          <t>Dàm</t>
         </is>
       </c>
       <c r="C508">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>DẶNG</t>
+          <t>Đam</t>
         </is>
       </c>
       <c r="C509">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Đắng</t>
+          <t>Đamg</t>
         </is>
       </c>
       <c r="C510">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Đằng</t>
+          <t>Đặmg</t>
         </is>
       </c>
       <c r="C511">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ĐẰNG</t>
+          <t>Dân</t>
         </is>
       </c>
       <c r="C512">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Đẵng</t>
+          <t>Dần</t>
         </is>
       </c>
       <c r="C513">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Đâng</t>
+          <t>DẶNG</t>
         </is>
       </c>
       <c r="C514">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Đẫng</t>
+          <t>Đắng</t>
         </is>
       </c>
       <c r="C515">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ĐĂNGK</t>
+          <t>Đằng</t>
         </is>
       </c>
       <c r="C516">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Đanh</t>
+          <t>ĐẰNG</t>
         </is>
       </c>
       <c r="C517">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ĐAO</t>
+          <t>Đẵng</t>
         </is>
       </c>
       <c r="C518">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ĐÁO</t>
+          <t>Đâng</t>
         </is>
       </c>
       <c r="C519">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Đảo</t>
+          <t>Đẫng</t>
         </is>
       </c>
       <c r="C520">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Đapf</t>
+          <t>ĐĂNGK</t>
         </is>
       </c>
       <c r="C521">
@@ -11312,7 +11312,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Đầu</t>
+          <t>Đanh</t>
         </is>
       </c>
       <c r="C522">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ĐẬU</t>
+          <t>ĐAO</t>
         </is>
       </c>
       <c r="C523">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Đawngn</t>
+          <t>ĐÁO</t>
         </is>
       </c>
       <c r="C524">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Đèo</t>
+          <t>Đảo</t>
         </is>
       </c>
       <c r="C525">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Dfao</t>
+          <t>Đàoe</t>
         </is>
       </c>
       <c r="C526">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Diên</t>
+          <t>ĐàoThi</t>
         </is>
       </c>
       <c r="C527">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>DIÊP</t>
+          <t>Đapf</t>
         </is>
       </c>
       <c r="C528">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Diệp</t>
+          <t>Đầu</t>
         </is>
       </c>
       <c r="C529">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>diệu</t>
+          <t>ĐẬU</t>
         </is>
       </c>
       <c r="C530">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Diinh</t>
+          <t>Đawngn</t>
         </is>
       </c>
       <c r="C531">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Điinh</t>
+          <t>DĐOÀN</t>
         </is>
       </c>
       <c r="C532">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Dín</t>
+          <t>Đèo</t>
         </is>
       </c>
       <c r="C533">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Định</t>
+          <t>Dfao</t>
         </is>
       </c>
       <c r="C534">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>đlnh</t>
+          <t>Diên</t>
         </is>
       </c>
       <c r="C535">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ĐNIH</t>
+          <t>DIÊP</t>
         </is>
       </c>
       <c r="C536">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Dô</t>
+          <t>Diệp</t>
         </is>
       </c>
       <c r="C537">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Dố</t>
+          <t>diệu</t>
         </is>
       </c>
       <c r="C538">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Đó</t>
+          <t>Diinh</t>
         </is>
       </c>
       <c r="C539">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>đố</t>
+          <t>Điinh</t>
         </is>
       </c>
       <c r="C540">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ĐỐ</t>
+          <t>Dín</t>
         </is>
       </c>
       <c r="C541">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ĐỒ</t>
+          <t>Định</t>
         </is>
       </c>
       <c r="C542">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Đở</t>
+          <t>đlnh</t>
         </is>
       </c>
       <c r="C543">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>đòa</t>
+          <t>ĐNIH</t>
         </is>
       </c>
       <c r="C544">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Doãm</t>
+          <t>Dô</t>
         </is>
       </c>
       <c r="C545">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Doàn</t>
+          <t>Dố</t>
         </is>
       </c>
       <c r="C546">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Dõan</t>
+          <t>Đó</t>
         </is>
       </c>
       <c r="C547">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Đoán</t>
+          <t>đố</t>
         </is>
       </c>
       <c r="C548">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Đoang</t>
+          <t>ĐỐ</t>
         </is>
       </c>
       <c r="C549">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Doanh</t>
+          <t>ĐỒ</t>
         </is>
       </c>
       <c r="C550">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>ĐỘC</t>
+          <t>Đở</t>
         </is>
       </c>
       <c r="C551">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ĐoKhắc</t>
+          <t>đòa</t>
         </is>
       </c>
       <c r="C552">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>đòn</t>
+          <t>Doãm</t>
         </is>
       </c>
       <c r="C553">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Đơn</t>
+          <t>Doàn</t>
         </is>
       </c>
       <c r="C554">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Đong</t>
+          <t>Dõan</t>
         </is>
       </c>
       <c r="C555">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>ĐỒNG</t>
+          <t>Đoán</t>
         </is>
       </c>
       <c r="C556">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>ĐồngTuấn</t>
+          <t>Đoang</t>
         </is>
       </c>
       <c r="C557">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Đonh</t>
+          <t>đoàng</t>
         </is>
       </c>
       <c r="C558">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Đoỗ</t>
+          <t>Doanh</t>
         </is>
       </c>
       <c r="C559">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>DU</t>
+          <t>ĐỘC</t>
         </is>
       </c>
       <c r="C560">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Dưing</t>
+          <t>ĐoKhắc</t>
         </is>
       </c>
       <c r="C561">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Đựng</t>
+          <t>đòn</t>
         </is>
       </c>
       <c r="C562">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>duong</t>
+          <t>Đơn</t>
         </is>
       </c>
       <c r="C563">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Dươnv</t>
+          <t>Đong</t>
         </is>
       </c>
       <c r="C564">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Dưưng</t>
+          <t>ĐỒNG</t>
         </is>
       </c>
       <c r="C565">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>ĐồngTuấn</t>
         </is>
       </c>
       <c r="C566">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>DUYÊN</t>
+          <t>Đonh</t>
         </is>
       </c>
       <c r="C567">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Dwong</t>
+          <t>Đoỗ</t>
         </is>
       </c>
       <c r="C568">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Faj</t>
+          <t>DU</t>
         </is>
       </c>
       <c r="C569">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>gà</t>
+          <t>Dưing</t>
         </is>
       </c>
       <c r="C570">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Đựng</t>
         </is>
       </c>
       <c r="C571">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Giao</t>
+          <t>duong</t>
         </is>
       </c>
       <c r="C572">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>giáp</t>
+          <t>Dươnv</t>
         </is>
       </c>
       <c r="C573">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Giyên</t>
+          <t>Dưưng</t>
         </is>
       </c>
       <c r="C574">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Gỗ</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="C575">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Hã</t>
+          <t>DUYÊN</t>
         </is>
       </c>
       <c r="C576">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Hả</t>
+          <t>Dwong</t>
         </is>
       </c>
       <c r="C577">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Haà</t>
+          <t>Faj</t>
         </is>
       </c>
       <c r="C578">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Hạc</t>
+          <t>gà</t>
         </is>
       </c>
       <c r="C579">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Had</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="C580">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Hag</t>
+          <t>Giao</t>
         </is>
       </c>
       <c r="C581">
@@ -12572,7 +12572,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Hạm</t>
+          <t>giáp</t>
         </is>
       </c>
       <c r="C582">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Hạn</t>
+          <t>Giyên</t>
         </is>
       </c>
       <c r="C583">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>HDUYNÊ</t>
+          <t>Gỗ</t>
         </is>
       </c>
       <c r="C584">
@@ -12635,7 +12635,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>hiệu</t>
+          <t>Hã</t>
         </is>
       </c>
       <c r="C585">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Hả</t>
         </is>
       </c>
       <c r="C586">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Hố</t>
+          <t>Haà</t>
         </is>
       </c>
       <c r="C587">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Hóa</t>
+          <t>Hạc</t>
         </is>
       </c>
       <c r="C588">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Hoài</t>
+          <t>Had</t>
         </is>
       </c>
       <c r="C589">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Hoàmg</t>
+          <t>Hag</t>
         </is>
       </c>
       <c r="C590">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Hoan</t>
+          <t>Hạm</t>
         </is>
       </c>
       <c r="C591">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Hoanf</t>
+          <t>Hạn</t>
         </is>
       </c>
       <c r="C592">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Hoăng</t>
+          <t>HDUYNÊ</t>
         </is>
       </c>
       <c r="C593">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Hoảng</t>
+          <t>hiệu</t>
         </is>
       </c>
       <c r="C594">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Hpaj</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="C595">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Hphajm</t>
+          <t>Hố</t>
         </is>
       </c>
       <c r="C596">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Hsf</t>
+          <t>Hóa</t>
         </is>
       </c>
       <c r="C597">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Huấn</t>
+          <t>Hoài</t>
         </is>
       </c>
       <c r="C598">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Huệ</t>
+          <t>Hoàmg</t>
         </is>
       </c>
       <c r="C599">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>hữi</t>
+          <t>Hoan</t>
         </is>
       </c>
       <c r="C600">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Hường</t>
+          <t>Hoanf</t>
         </is>
       </c>
       <c r="C601">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Hưu</t>
+          <t>Hoăng</t>
         </is>
       </c>
       <c r="C602">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Huy</t>
+          <t>Hoảng</t>
         </is>
       </c>
       <c r="C603">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Hùy</t>
+          <t>Hpaj</t>
         </is>
       </c>
       <c r="C604">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Huyên</t>
+          <t>Hphajm</t>
         </is>
       </c>
       <c r="C605">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Huyền</t>
+          <t>Hsf</t>
         </is>
       </c>
       <c r="C606">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>huýnh</t>
+          <t>Huấn</t>
         </is>
       </c>
       <c r="C607">
@@ -13118,7 +13118,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Iai</t>
+          <t>Huệ</t>
         </is>
       </c>
       <c r="C608">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Iê</t>
+          <t>hữi</t>
         </is>
       </c>
       <c r="C609">
@@ -13160,7 +13160,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Inguyeenx</t>
+          <t>Hường</t>
         </is>
       </c>
       <c r="C610">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Ka</t>
+          <t>Hưu</t>
         </is>
       </c>
       <c r="C611">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Kalicova</t>
+          <t>Huy</t>
         </is>
       </c>
       <c r="C612">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Kao</t>
+          <t>Hùy</t>
         </is>
       </c>
       <c r="C613">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Kê</t>
+          <t>Huyên</t>
         </is>
       </c>
       <c r="C614">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Khải</t>
+          <t>Huyền</t>
         </is>
       </c>
       <c r="C615">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Khang</t>
+          <t>huýnh</t>
         </is>
       </c>
       <c r="C616">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Khánh</t>
+          <t>Iai</t>
         </is>
       </c>
       <c r="C617">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Khất</t>
+          <t>Iê</t>
         </is>
       </c>
       <c r="C618">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Khâu</t>
+          <t>Inguyeenx</t>
         </is>
       </c>
       <c r="C619">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Không</t>
+          <t>Ka</t>
         </is>
       </c>
       <c r="C620">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>khổng</t>
+          <t>Kalicova</t>
         </is>
       </c>
       <c r="C621">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>KHÚC</t>
+          <t>Kao</t>
         </is>
       </c>
       <c r="C622">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>KHương</t>
+          <t>Kê</t>
         </is>
       </c>
       <c r="C623">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Khyếu</t>
+          <t>Khải</t>
         </is>
       </c>
       <c r="C624">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Kiến</t>
+          <t>Khang</t>
         </is>
       </c>
       <c r="C625">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Kiền</t>
+          <t>Khánh</t>
         </is>
       </c>
       <c r="C626">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Kiềng</t>
+          <t>Khất</t>
         </is>
       </c>
       <c r="C627">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Kiêù</t>
+          <t>Khâu</t>
         </is>
       </c>
       <c r="C628">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Klã</t>
+          <t>Không</t>
         </is>
       </c>
       <c r="C629">
@@ -13580,7 +13580,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Klm</t>
+          <t>khổng</t>
         </is>
       </c>
       <c r="C630">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Kương</t>
+          <t>KHương</t>
         </is>
       </c>
       <c r="C631">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Lă</t>
+          <t>Khyếu</t>
         </is>
       </c>
       <c r="C632">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Lạc</t>
+          <t>Kiến</t>
         </is>
       </c>
       <c r="C633">
@@ -13664,7 +13664,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Lạc</t>
+          <t>Kiền</t>
         </is>
       </c>
       <c r="C634">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Lãi</t>
+          <t>Kiềng</t>
         </is>
       </c>
       <c r="C635">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Laik</t>
+          <t>Kiêù</t>
         </is>
       </c>
       <c r="C636">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Làm</t>
+          <t>Klã</t>
         </is>
       </c>
       <c r="C637">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Lẫn</t>
+          <t>Klm</t>
         </is>
       </c>
       <c r="C638">
@@ -13769,7 +13769,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>LANG</t>
+          <t>Kương</t>
         </is>
       </c>
       <c r="C639">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>lăng</t>
+          <t>Lă</t>
         </is>
       </c>
       <c r="C640">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>lạu</t>
+          <t>Lạc</t>
         </is>
       </c>
       <c r="C641">
@@ -13832,7 +13832,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Lạu</t>
+          <t>Lạc</t>
         </is>
       </c>
       <c r="C642">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Lẫy</t>
+          <t>Lãi</t>
         </is>
       </c>
       <c r="C643">
@@ -13874,7 +13874,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>LỂ</t>
+          <t>Laik</t>
         </is>
       </c>
       <c r="C644">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>lệnh</t>
+          <t>Làm</t>
         </is>
       </c>
       <c r="C645">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>lèo</t>
+          <t>Lẫn</t>
         </is>
       </c>
       <c r="C646">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Lèo</t>
+          <t>LANG</t>
         </is>
       </c>
       <c r="C647">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Liêm</t>
+          <t>lăng</t>
         </is>
       </c>
       <c r="C648">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Liêng</t>
+          <t>lạu</t>
         </is>
       </c>
       <c r="C649">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Lieu</t>
+          <t>Lạu</t>
         </is>
       </c>
       <c r="C650">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Liễu</t>
+          <t>Lẫy</t>
         </is>
       </c>
       <c r="C651">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Liểu</t>
+          <t>LỂ</t>
         </is>
       </c>
       <c r="C652">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Lim</t>
+          <t>lệnh</t>
         </is>
       </c>
       <c r="C653">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Liu</t>
+          <t>lèo</t>
         </is>
       </c>
       <c r="C654">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Lồ</t>
+          <t>Lèo</t>
         </is>
       </c>
       <c r="C655">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Lỗ</t>
+          <t>Liêm</t>
         </is>
       </c>
       <c r="C656">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Lõ</t>
+          <t>Liêng</t>
         </is>
       </c>
       <c r="C657">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>LỘC</t>
+          <t>Lieu</t>
         </is>
       </c>
       <c r="C658">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Lôi</t>
+          <t>Liễu</t>
         </is>
       </c>
       <c r="C659">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Lsij</t>
+          <t>Liểu</t>
         </is>
       </c>
       <c r="C660">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>lù</t>
+          <t>Lim</t>
         </is>
       </c>
       <c r="C661">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Lù</t>
+          <t>Liu</t>
         </is>
       </c>
       <c r="C662">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>LÙ</t>
+          <t>Lồ</t>
         </is>
       </c>
       <c r="C663">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>lư</t>
+          <t>Lỗ</t>
         </is>
       </c>
       <c r="C664">
@@ -14315,7 +14315,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>lừ</t>
+          <t>Lõ</t>
         </is>
       </c>
       <c r="C665">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Lự</t>
+          <t>LỘC</t>
         </is>
       </c>
       <c r="C666">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Luc</t>
+          <t>Lôi</t>
         </is>
       </c>
       <c r="C667">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Lúc</t>
+          <t>Lsij</t>
         </is>
       </c>
       <c r="C668">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>lục</t>
+          <t>lù</t>
         </is>
       </c>
       <c r="C669">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Lưing</t>
+          <t>Lù</t>
         </is>
       </c>
       <c r="C670">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>LÙ</t>
         </is>
       </c>
       <c r="C671">
@@ -14462,7 +14462,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Lùng</t>
+          <t>lư</t>
         </is>
       </c>
       <c r="C672">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Lưng</t>
+          <t>lừ</t>
         </is>
       </c>
       <c r="C673">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Lườn</t>
+          <t>Lự</t>
         </is>
       </c>
       <c r="C674">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>lượng</t>
+          <t>Luc</t>
         </is>
       </c>
       <c r="C675">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Lựu</t>
+          <t>Lúc</t>
         </is>
       </c>
       <c r="C676">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>LUƯƠNG</t>
+          <t>lục</t>
         </is>
       </c>
       <c r="C677">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Má</t>
+          <t>Lưing</t>
         </is>
       </c>
       <c r="C678">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Mà</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C679">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>MÃ</t>
+          <t>Lùng</t>
         </is>
       </c>
       <c r="C680">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Mac</t>
+          <t>Lưng</t>
         </is>
       </c>
       <c r="C681">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>mặc</t>
+          <t>Lườn</t>
         </is>
       </c>
       <c r="C682">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Mắn</t>
+          <t>lượng</t>
         </is>
       </c>
       <c r="C683">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Mạnh</t>
+          <t>Lựu</t>
         </is>
       </c>
       <c r="C684">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Mào</t>
+          <t>LUƯƠNG</t>
         </is>
       </c>
       <c r="C685">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Má</t>
         </is>
       </c>
       <c r="C686">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Mây</t>
+          <t>Mà</t>
         </is>
       </c>
       <c r="C687">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Mê</t>
+          <t>MÃ</t>
         </is>
       </c>
       <c r="C688">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Mễ</t>
+          <t>Mac</t>
         </is>
       </c>
       <c r="C689">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Mgô</t>
+          <t>mặc</t>
         </is>
       </c>
       <c r="C690">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Mguyễ</t>
+          <t>Mắn</t>
         </is>
       </c>
       <c r="C691">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Mạnh</t>
         </is>
       </c>
       <c r="C692">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Msi</t>
+          <t>Mào</t>
         </is>
       </c>
       <c r="C693">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Muộn</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C694">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Mây</t>
         </is>
       </c>
       <c r="C695">
@@ -14966,7 +14966,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Mê</t>
         </is>
       </c>
       <c r="C696">
@@ -14987,7 +14987,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Nã</t>
+          <t>Mễ</t>
         </is>
       </c>
       <c r="C697">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Nay</t>
+          <t>Mgô</t>
         </is>
       </c>
       <c r="C698">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NFUYÊN</t>
+          <t>Mguyễ</t>
         </is>
       </c>
       <c r="C699">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Nga</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="C700">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Ngày</t>
+          <t>Msi</t>
         </is>
       </c>
       <c r="C701">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Ngfuyễn</t>
+          <t>Muộn</t>
         </is>
       </c>
       <c r="C702">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NGHÊ</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C703">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Nghiem</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="C704">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Nghiễn</t>
+          <t>Nã</t>
         </is>
       </c>
       <c r="C705">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Ngjuyễn</t>
+          <t>Nay</t>
         </is>
       </c>
       <c r="C706">
@@ -15197,7 +15197,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Ngjyeexn</t>
+          <t>NFUYÊN</t>
         </is>
       </c>
       <c r="C707">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Ngjyên</t>
+          <t>Nga</t>
         </is>
       </c>
       <c r="C708">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NGO</t>
+          <t>Ngày</t>
         </is>
       </c>
       <c r="C709">
@@ -15260,7 +15260,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Ngỗ</t>
+          <t>Ngfuyễn</t>
         </is>
       </c>
       <c r="C710">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NGỌC</t>
+          <t>NGHÊ</t>
         </is>
       </c>
       <c r="C711">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Ngrenx</t>
+          <t>Nghiem</t>
         </is>
       </c>
       <c r="C712">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>nguên</t>
+          <t>Nghiễn</t>
         </is>
       </c>
       <c r="C713">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Người</t>
+          <t>Ngjuyễn</t>
         </is>
       </c>
       <c r="C714">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>ngutênx</t>
+          <t>Ngjyeexn</t>
         </is>
       </c>
       <c r="C715">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Nguueexn</t>
+          <t>Ngjyên</t>
         </is>
       </c>
       <c r="C716">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Nguuyễn</t>
+          <t>NGO</t>
         </is>
       </c>
       <c r="C717">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Nguydne</t>
+          <t>Ngỗ</t>
         </is>
       </c>
       <c r="C718">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Nguyếb</t>
+          <t>NGỌC</t>
         </is>
       </c>
       <c r="C719">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NGUYÊM</t>
+          <t>Ngrenx</t>
         </is>
       </c>
       <c r="C720">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Nguyệ̃n</t>
+          <t>nguên</t>
         </is>
       </c>
       <c r="C721">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Nguỹên</t>
+          <t>Người</t>
         </is>
       </c>
       <c r="C722">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Nguyteenx</t>
+          <t>ngutênx</t>
         </is>
       </c>
       <c r="C723">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Nguyyen</t>
+          <t>Nguueexn</t>
         </is>
       </c>
       <c r="C724">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NGYUÊN</t>
+          <t>Nguuyễn</t>
         </is>
       </c>
       <c r="C725">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NHÂM</t>
+          <t>Nguydne</t>
         </is>
       </c>
       <c r="C726">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Nhân</t>
+          <t>Nguyếb</t>
         </is>
       </c>
       <c r="C727">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Nhật</t>
+          <t>NGUYÊM</t>
         </is>
       </c>
       <c r="C728">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>NHĐGUYÊN</t>
+          <t>Nguyệ̃n</t>
         </is>
       </c>
       <c r="C729">
@@ -15680,7 +15680,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Nhgiêm</t>
+          <t>Nguỹên</t>
         </is>
       </c>
       <c r="C730">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Nhguyên</t>
+          <t>Nguyteenx</t>
         </is>
       </c>
       <c r="C731">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Nhiễm</t>
+          <t>Nguyyen</t>
         </is>
       </c>
       <c r="C732">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NHIẾP</t>
+          <t>NGYUÊN</t>
         </is>
       </c>
       <c r="C733">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Nho</t>
+          <t>NHÂM</t>
         </is>
       </c>
       <c r="C734">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Nhô</t>
+          <t>Nhân</t>
         </is>
       </c>
       <c r="C735">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Nhũ</t>
+          <t>Nhật</t>
         </is>
       </c>
       <c r="C736">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>NHỪ</t>
+          <t>NHĐGUYÊN</t>
         </is>
       </c>
       <c r="C737">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Nhữthi</t>
+          <t>Nhgiêm</t>
         </is>
       </c>
       <c r="C738">
@@ -15869,7 +15869,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Nhữthij</t>
+          <t>Nhguyên</t>
         </is>
       </c>
       <c r="C739">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NhữXuân</t>
+          <t>Nhiễm</t>
         </is>
       </c>
       <c r="C740">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Nhuyênc</t>
+          <t>NHIẾP</t>
         </is>
       </c>
       <c r="C741">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Nịch</t>
+          <t>Nho</t>
         </is>
       </c>
       <c r="C742">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Nình</t>
+          <t>Nhô</t>
         </is>
       </c>
       <c r="C743">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Nịnh</t>
+          <t>Nhũ</t>
         </is>
       </c>
       <c r="C744">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Niu</t>
+          <t>NHỪ</t>
         </is>
       </c>
       <c r="C745">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Nmguyễn</t>
+          <t>Nhữthi</t>
         </is>
       </c>
       <c r="C746">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NOH</t>
+          <t>Nhữthij</t>
         </is>
       </c>
       <c r="C747">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Nũ</t>
+          <t>NhữXuân</t>
         </is>
       </c>
       <c r="C748">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Nugyễn</t>
+          <t>Nhuyênc</t>
         </is>
       </c>
       <c r="C749">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Nương</t>
+          <t>Nịch</t>
         </is>
       </c>
       <c r="C750">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Nuyễ</t>
+          <t>Nình</t>
         </is>
       </c>
       <c r="C751">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Nuyền</t>
+          <t>Nịnh</t>
         </is>
       </c>
       <c r="C752">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Nuỹen</t>
+          <t>Niu</t>
         </is>
       </c>
       <c r="C753">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Ông</t>
+          <t>Nmguyễn</t>
         </is>
       </c>
       <c r="C754">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>pạm</t>
+          <t>NOH</t>
         </is>
       </c>
       <c r="C755">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Nũ</t>
         </is>
       </c>
       <c r="C756">
@@ -16247,7 +16247,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Phai</t>
+          <t>Nugyễn</t>
         </is>
       </c>
       <c r="C757">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Phải</t>
+          <t>Nương</t>
         </is>
       </c>
       <c r="C758">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Phảm</t>
+          <t>Nuyễ</t>
         </is>
       </c>
       <c r="C759">
@@ -16310,7 +16310,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Phán</t>
+          <t>Nuyền</t>
         </is>
       </c>
       <c r="C760">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Phản</t>
+          <t>Nuỹen</t>
         </is>
       </c>
       <c r="C761">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Phận</t>
+          <t>Ông</t>
         </is>
       </c>
       <c r="C762">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>phí</t>
+          <t>pạm</t>
         </is>
       </c>
       <c r="C763">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Phj</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C764">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Phong</t>
+          <t>Phai</t>
         </is>
       </c>
       <c r="C765">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Phu</t>
+          <t>Phải</t>
         </is>
       </c>
       <c r="C766">
@@ -16457,7 +16457,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Phụ</t>
+          <t>Phảm</t>
         </is>
       </c>
       <c r="C767">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Pjam</t>
+          <t>Phán</t>
         </is>
       </c>
       <c r="C768">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Pjamj</t>
+          <t>Phản</t>
         </is>
       </c>
       <c r="C769">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Pơ</t>
+          <t>Phận</t>
         </is>
       </c>
       <c r="C770">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Quả</t>
+          <t>phí</t>
         </is>
       </c>
       <c r="C771">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Quân</t>
+          <t>Phj</t>
         </is>
       </c>
       <c r="C772">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Quản</t>
+          <t>Phong</t>
         </is>
       </c>
       <c r="C773">
@@ -16604,7 +16604,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Quảng</t>
+          <t>Phu</t>
         </is>
       </c>
       <c r="C774">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Quanh</t>
+          <t>Phụ</t>
         </is>
       </c>
       <c r="C775">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Quuền</t>
+          <t>Pjam</t>
         </is>
       </c>
       <c r="C776">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Quý</t>
+          <t>Pjamj</t>
         </is>
       </c>
       <c r="C777">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Quyách</t>
+          <t>Pơ</t>
         </is>
       </c>
       <c r="C778">
@@ -16709,7 +16709,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Rần</t>
+          <t>Quả</t>
         </is>
       </c>
       <c r="C779">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Ráp</t>
+          <t>Quân</t>
         </is>
       </c>
       <c r="C780">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Rmahh</t>
+          <t>Quản</t>
         </is>
       </c>
       <c r="C781">
@@ -16772,7 +16772,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Roãn</t>
+          <t>Quảng</t>
         </is>
       </c>
       <c r="C782">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Sắm</t>
+          <t>Quanh</t>
         </is>
       </c>
       <c r="C783">
@@ -16814,7 +16814,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Sằm</t>
+          <t>Quuền</t>
         </is>
       </c>
       <c r="C784">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Sâm</t>
+          <t>Quý</t>
         </is>
       </c>
       <c r="C785">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Sẩm</t>
+          <t>Quyách</t>
         </is>
       </c>
       <c r="C786">
@@ -16877,7 +16877,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Sao</t>
+          <t>Rần</t>
         </is>
       </c>
       <c r="C787">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Sáu</t>
+          <t>Ráp</t>
         </is>
       </c>
       <c r="C788">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Siều</t>
+          <t>Rmahh</t>
         </is>
       </c>
       <c r="C789">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Sìn</t>
+          <t>Roãn</t>
         </is>
       </c>
       <c r="C790">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Sinh</t>
+          <t>Sắm</t>
         </is>
       </c>
       <c r="C791">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Sìu</t>
+          <t>Sằm</t>
         </is>
       </c>
       <c r="C792">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Sủ</t>
+          <t>Sâm</t>
         </is>
       </c>
       <c r="C793">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Sỹ</t>
+          <t>Sẩm</t>
         </is>
       </c>
       <c r="C794">
@@ -17045,7 +17045,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tả</t>
+          <t>Sao</t>
         </is>
       </c>
       <c r="C795">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>TẢI</t>
+          <t>Sáu</t>
         </is>
       </c>
       <c r="C796">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tấn</t>
+          <t>Siều</t>
         </is>
       </c>
       <c r="C797">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>TẦN</t>
+          <t>Sìn</t>
         </is>
       </c>
       <c r="C798">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>TẦN</t>
+          <t>Sinh</t>
         </is>
       </c>
       <c r="C799">
@@ -17150,7 +17150,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>tăng</t>
+          <t>Sìu</t>
         </is>
       </c>
       <c r="C800">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>TĂNG</t>
+          <t>Sủ</t>
         </is>
       </c>
       <c r="C801">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Tằng</t>
+          <t>Sỹ</t>
         </is>
       </c>
       <c r="C802">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Tất</t>
+          <t>Tả</t>
         </is>
       </c>
       <c r="C803">
@@ -17234,7 +17234,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>tàu</t>
+          <t>TẢI</t>
         </is>
       </c>
       <c r="C804">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Thạc</t>
+          <t>Tấn</t>
         </is>
       </c>
       <c r="C805">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Than</t>
+          <t>TẦN</t>
         </is>
       </c>
       <c r="C806">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>thần</t>
+          <t>TẦN</t>
         </is>
       </c>
       <c r="C807">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Thần</t>
+          <t>tăng</t>
         </is>
       </c>
       <c r="C808">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Thanh</t>
+          <t>TĂNG</t>
         </is>
       </c>
       <c r="C809">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Thêm</t>
+          <t>Tằng</t>
         </is>
       </c>
       <c r="C810">
@@ -17381,7 +17381,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Thiên</t>
+          <t>Tất</t>
         </is>
       </c>
       <c r="C811">
@@ -17402,7 +17402,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Thieu</t>
+          <t>tàu</t>
         </is>
       </c>
       <c r="C812">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Thiếu</t>
+          <t>Thạc</t>
         </is>
       </c>
       <c r="C813">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Thiếu</t>
+          <t>Than</t>
         </is>
       </c>
       <c r="C814">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>ThiềuQuang</t>
+          <t>thần</t>
         </is>
       </c>
       <c r="C815">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Thòng</t>
+          <t>Thần</t>
         </is>
       </c>
       <c r="C816">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Thương</t>
+          <t>Thanh</t>
         </is>
       </c>
       <c r="C817">
@@ -17528,7 +17528,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Thúy</t>
+          <t>Thêm</t>
         </is>
       </c>
       <c r="C818">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Tích</t>
+          <t>Thiên</t>
         </is>
       </c>
       <c r="C819">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Tiên</t>
+          <t>Thieu</t>
         </is>
       </c>
       <c r="C820">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>tiêu</t>
+          <t>Thiếu</t>
         </is>
       </c>
       <c r="C821">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>Thiếu</t>
         </is>
       </c>
       <c r="C822">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Toàn</t>
+          <t>ThiềuQuang</t>
         </is>
       </c>
       <c r="C823">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Toi</t>
+          <t>Thòng</t>
         </is>
       </c>
       <c r="C824">
@@ -17675,7 +17675,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Tồng</t>
+          <t>Thương</t>
         </is>
       </c>
       <c r="C825">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>TỒNG</t>
+          <t>Thúy</t>
         </is>
       </c>
       <c r="C826">
@@ -17717,7 +17717,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>tổng</t>
+          <t>Tích</t>
         </is>
       </c>
       <c r="C827">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Toống</t>
+          <t>Tiên</t>
         </is>
       </c>
       <c r="C828">
@@ -17759,7 +17759,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Trâ</t>
+          <t>tiêu</t>
         </is>
       </c>
       <c r="C829">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>TRÂ</t>
+          <t>To</t>
         </is>
       </c>
       <c r="C830">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>TRAABF</t>
+          <t>Toàn</t>
         </is>
       </c>
       <c r="C831">
@@ -17822,7 +17822,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Trâân</t>
+          <t>Toi</t>
         </is>
       </c>
       <c r="C832">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Trâần</t>
+          <t>Tồng</t>
         </is>
       </c>
       <c r="C833">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Traang</t>
+          <t>TỒNG</t>
         </is>
       </c>
       <c r="C834">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Trâbf</t>
+          <t>tổng</t>
         </is>
       </c>
       <c r="C835">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Trâd</t>
+          <t>Toống</t>
         </is>
       </c>
       <c r="C836">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Trâgn</t>
+          <t>Trâ</t>
         </is>
       </c>
       <c r="C837">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>TRẦM</t>
+          <t>TRÂ</t>
         </is>
       </c>
       <c r="C838">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Trạm</t>
+          <t>TRAABF</t>
         </is>
       </c>
       <c r="C839">
@@ -17990,7 +17990,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Traqnf</t>
+          <t>Trâân</t>
         </is>
       </c>
       <c r="C840">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Trêu</t>
+          <t>Trâần</t>
         </is>
       </c>
       <c r="C841">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Tribhj</t>
+          <t>Traang</t>
         </is>
       </c>
       <c r="C842">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Triinhj</t>
+          <t>Trâbf</t>
         </is>
       </c>
       <c r="C843">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Trijnh</t>
+          <t>Trâd</t>
         </is>
       </c>
       <c r="C844">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Trimhj</t>
+          <t>Trâgn</t>
         </is>
       </c>
       <c r="C845">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>trinh</t>
+          <t>TRẦM</t>
         </is>
       </c>
       <c r="C846">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Trinhk</t>
+          <t>Trạm</t>
         </is>
       </c>
       <c r="C847">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Trinhn</t>
+          <t>Traqnf</t>
         </is>
       </c>
       <c r="C848">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Triowng</t>
+          <t>Trêu</t>
         </is>
       </c>
       <c r="C849">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Trish</t>
+          <t>Tribhj</t>
         </is>
       </c>
       <c r="C850">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Trnh</t>
+          <t>Triinhj</t>
         </is>
       </c>
       <c r="C851">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Troọng</t>
+          <t>Trijnh</t>
         </is>
       </c>
       <c r="C852">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Trơơng</t>
+          <t>Trimhj</t>
         </is>
       </c>
       <c r="C853">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Trqàn</t>
+          <t>trinh</t>
         </is>
       </c>
       <c r="C854">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Trraaf</t>
+          <t>Trinhk</t>
         </is>
       </c>
       <c r="C855">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Trraanf</t>
+          <t>Trinhn</t>
         </is>
       </c>
       <c r="C856">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Trúc</t>
+          <t>Triowng</t>
         </is>
       </c>
       <c r="C857">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>TruiNg</t>
+          <t>Trish</t>
         </is>
       </c>
       <c r="C858">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Trứng</t>
+          <t>Trnh</t>
         </is>
       </c>
       <c r="C859">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Trước</t>
+          <t>Troọng</t>
         </is>
       </c>
       <c r="C860">
@@ -18431,7 +18431,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Trườn</t>
+          <t>Trơơng</t>
         </is>
       </c>
       <c r="C861">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Truóng</t>
+          <t>Trqàn</t>
         </is>
       </c>
       <c r="C862">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Trượng</t>
+          <t>Trraaf</t>
         </is>
       </c>
       <c r="C863">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Truyện</t>
+          <t>Trraanf</t>
         </is>
       </c>
       <c r="C864">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Tsj</t>
+          <t>Trúc</t>
         </is>
       </c>
       <c r="C865">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Ttàm</t>
+          <t>TruiNg</t>
         </is>
       </c>
       <c r="C866">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Ttân</t>
+          <t>Trứng</t>
         </is>
       </c>
       <c r="C867">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Ttần</t>
+          <t>Trước</t>
         </is>
       </c>
       <c r="C868">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Ttinh</t>
+          <t>Trườn</t>
         </is>
       </c>
       <c r="C869">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Tủ</t>
+          <t>Truóng</t>
         </is>
       </c>
       <c r="C870">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>từ</t>
+          <t>Trượng</t>
         </is>
       </c>
       <c r="C871">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Tý</t>
+          <t>Truyện</t>
         </is>
       </c>
       <c r="C872">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Ui</t>
+          <t>Tsj</t>
         </is>
       </c>
       <c r="C873">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Ưng</t>
+          <t>Ttàm</t>
         </is>
       </c>
       <c r="C874">
@@ -18725,7 +18725,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>ỨNG</t>
+          <t>Ttân</t>
         </is>
       </c>
       <c r="C875">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>ỨNG</t>
+          <t>Ttần</t>
         </is>
       </c>
       <c r="C876">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Uống</t>
+          <t>Ttinh</t>
         </is>
       </c>
       <c r="C877">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Uý</t>
+          <t>Tủ</t>
         </is>
       </c>
       <c r="C878">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Và</t>
+          <t>từ</t>
         </is>
       </c>
       <c r="C879">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Văm</t>
+          <t>Tý</t>
         </is>
       </c>
       <c r="C880">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Vang</t>
+          <t>Ui</t>
         </is>
       </c>
       <c r="C881">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>VÁNG</t>
+          <t>Ưng</t>
         </is>
       </c>
       <c r="C882">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Ven</t>
+          <t>ỨNG</t>
         </is>
       </c>
       <c r="C883">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>VỖ</t>
+          <t>ỨNG</t>
         </is>
       </c>
       <c r="C884">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Vợ</t>
+          <t>Uống</t>
         </is>
       </c>
       <c r="C885">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>Uý</t>
         </is>
       </c>
       <c r="C886">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>Vư</t>
+          <t>Và</t>
         </is>
       </c>
       <c r="C887">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>vụ</t>
+          <t>Văm</t>
         </is>
       </c>
       <c r="C888">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>Vụ</t>
+          <t>Vang</t>
         </is>
       </c>
       <c r="C889">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>VỤ</t>
+          <t>VÁNG</t>
         </is>
       </c>
       <c r="C890">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Vùi</t>
+          <t>Ven</t>
         </is>
       </c>
       <c r="C891">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>VÙI</t>
+          <t>VỖ</t>
         </is>
       </c>
       <c r="C892">
@@ -19103,7 +19103,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>VVUX</t>
+          <t>Vợ</t>
         </is>
       </c>
       <c r="C893">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Vỹ</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="C894">
@@ -19145,7 +19145,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Xeo</t>
+          <t>Vư</t>
         </is>
       </c>
       <c r="C895">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>ỶÂN</t>
+          <t>vụ</t>
         </is>
       </c>
       <c r="C896">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Yên</t>
+          <t>Vụ</t>
         </is>
       </c>
       <c r="C897">
@@ -19208,16 +19208,184 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
+          <t>VỤ</t>
+        </is>
+      </c>
+      <c r="C898">
+        <v>1</v>
+      </c>
+      <c r="D898">
+        <v>843026</v>
+      </c>
+      <c r="E898">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Vùi</t>
+        </is>
+      </c>
+      <c r="C899">
+        <v>1</v>
+      </c>
+      <c r="D899">
+        <v>843026</v>
+      </c>
+      <c r="E899">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>VÙI</t>
+        </is>
+      </c>
+      <c r="C900">
+        <v>1</v>
+      </c>
+      <c r="D900">
+        <v>843026</v>
+      </c>
+      <c r="E900">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>VVUX</t>
+        </is>
+      </c>
+      <c r="C901">
+        <v>1</v>
+      </c>
+      <c r="D901">
+        <v>843026</v>
+      </c>
+      <c r="E901">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Vỹ</t>
+        </is>
+      </c>
+      <c r="C902">
+        <v>1</v>
+      </c>
+      <c r="D902">
+        <v>843026</v>
+      </c>
+      <c r="E902">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Xeo</t>
+        </is>
+      </c>
+      <c r="C903">
+        <v>1</v>
+      </c>
+      <c r="D903">
+        <v>843026</v>
+      </c>
+      <c r="E903">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>ỶÂN</t>
+        </is>
+      </c>
+      <c r="C904">
+        <v>1</v>
+      </c>
+      <c r="D904">
+        <v>843026</v>
+      </c>
+      <c r="E904">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Yên</t>
+        </is>
+      </c>
+      <c r="C905">
+        <v>1</v>
+      </c>
+      <c r="D905">
+        <v>843026</v>
+      </c>
+      <c r="E905">
+        <v>0.0001186203035256327</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
           <t>Yu</t>
         </is>
       </c>
-      <c r="C898">
-        <v>1</v>
-      </c>
-      <c r="D898">
-        <v>843026</v>
-      </c>
-      <c r="E898">
+      <c r="C906">
+        <v>1</v>
+      </c>
+      <c r="D906">
+        <v>843026</v>
+      </c>
+      <c r="E906">
         <v>0.0001186203035256327</v>
       </c>
     </row>
